--- a/MATLAB/Hex2.xlsx
+++ b/MATLAB/Hex2.xlsx
@@ -13,54 +13,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1850" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1850" uniqueCount="18">
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>4E</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>9B</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>2C</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>4E</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>5E</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>6F</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>0B</t>
   </si>
 </sst>
 </file>
@@ -114,13 +120,13 @@
   <cols>
     <col min="1" max="1" width="3" customWidth="true"/>
     <col min="2" max="2" width="3" customWidth="true"/>
-    <col min="3" max="3" width="3.109375" customWidth="true"/>
-    <col min="4" max="4" width="3" customWidth="true"/>
-    <col min="5" max="5" width="3" customWidth="true"/>
-    <col min="6" max="6" width="3" customWidth="true"/>
+    <col min="3" max="3" width="2.77734375" customWidth="true"/>
+    <col min="4" max="4" width="2.77734375" customWidth="true"/>
+    <col min="5" max="5" width="2.77734375" customWidth="true"/>
+    <col min="6" max="6" width="3.109375" customWidth="true"/>
     <col min="7" max="7" width="3" customWidth="true"/>
-    <col min="8" max="8" width="3" customWidth="true"/>
-    <col min="9" max="9" width="3" customWidth="true"/>
+    <col min="8" max="8" width="2.88671875" customWidth="true"/>
+    <col min="9" max="9" width="2.88671875" customWidth="true"/>
     <col min="10" max="10" width="3" customWidth="true"/>
     <col min="11" max="11" width="3" customWidth="true"/>
     <col min="12" max="12" width="3" customWidth="true"/>
@@ -129,23 +135,23 @@
     <col min="15" max="15" width="3" customWidth="true"/>
     <col min="16" max="16" width="3" customWidth="true"/>
     <col min="17" max="17" width="3" customWidth="true"/>
-    <col min="18" max="18" width="2.88671875" customWidth="true"/>
-    <col min="19" max="19" width="2.88671875" customWidth="true"/>
+    <col min="18" max="18" width="3" customWidth="true"/>
+    <col min="19" max="19" width="3" customWidth="true"/>
     <col min="20" max="20" width="3" customWidth="true"/>
     <col min="21" max="21" width="3" customWidth="true"/>
     <col min="22" max="22" width="3.109375" customWidth="true"/>
-    <col min="23" max="23" width="3.21875" customWidth="true"/>
-    <col min="24" max="24" width="2.77734375" customWidth="true"/>
-    <col min="25" max="25" width="2.77734375" customWidth="true"/>
-    <col min="26" max="26" width="2.77734375" customWidth="true"/>
-    <col min="27" max="27" width="3" customWidth="true"/>
-    <col min="28" max="28" width="3" customWidth="true"/>
-    <col min="29" max="29" width="3" customWidth="true"/>
-    <col min="30" max="30" width="3" customWidth="true"/>
-    <col min="31" max="31" width="3" customWidth="true"/>
-    <col min="32" max="32" width="3.109375" customWidth="true"/>
-    <col min="33" max="33" width="3" customWidth="true"/>
-    <col min="34" max="34" width="3" customWidth="true"/>
+    <col min="23" max="23" width="3" customWidth="true"/>
+    <col min="24" max="24" width="3" customWidth="true"/>
+    <col min="25" max="25" width="3" customWidth="true"/>
+    <col min="26" max="26" width="3" customWidth="true"/>
+    <col min="27" max="27" width="2.77734375" customWidth="true"/>
+    <col min="28" max="28" width="2.77734375" customWidth="true"/>
+    <col min="29" max="29" width="2.77734375" customWidth="true"/>
+    <col min="30" max="30" width="3.109375" customWidth="true"/>
+    <col min="31" max="31" width="3.109375" customWidth="true"/>
+    <col min="32" max="32" width="3" customWidth="true"/>
+    <col min="33" max="33" width="2.88671875" customWidth="true"/>
+    <col min="34" max="34" width="2.88671875" customWidth="true"/>
     <col min="35" max="35" width="3" customWidth="true"/>
     <col min="36" max="36" width="3" customWidth="true"/>
     <col min="37" max="37" width="3" customWidth="true"/>
@@ -159,8 +165,8 @@
     <col min="45" max="45" width="3" customWidth="true"/>
     <col min="46" max="46" width="3" customWidth="true"/>
     <col min="47" max="47" width="3" customWidth="true"/>
-    <col min="48" max="48" width="2.88671875" customWidth="true"/>
-    <col min="49" max="49" width="2.88671875" customWidth="true"/>
+    <col min="48" max="48" width="3.109375" customWidth="true"/>
+    <col min="49" max="49" width="3" customWidth="true"/>
     <col min="50" max="50" width="3" customWidth="true"/>
   </cols>
   <sheetData>
@@ -169,37 +175,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>7</v>
@@ -217,13 +223,13 @@
         <v>9</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S1" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U1" s="0" t="s">
         <v>11</v>
@@ -235,85 +241,85 @@
         <v>13</v>
       </c>
       <c r="X1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE1" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -321,37 +327,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>7</v>
@@ -369,13 +375,13 @@
         <v>9</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U2" s="0" t="s">
         <v>11</v>
@@ -387,85 +393,85 @@
         <v>13</v>
       </c>
       <c r="X2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,37 +479,37 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>7</v>
@@ -521,13 +527,13 @@
         <v>9</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U3" s="0" t="s">
         <v>11</v>
@@ -539,85 +545,85 @@
         <v>13</v>
       </c>
       <c r="X3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV3" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW3" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -625,37 +631,37 @@
         <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>7</v>
@@ -673,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U4" s="0" t="s">
         <v>11</v>
@@ -691,85 +697,85 @@
         <v>13</v>
       </c>
       <c r="X4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV4" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW4" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -777,37 +783,37 @@
         <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>7</v>
@@ -825,13 +831,13 @@
         <v>9</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U5" s="0" t="s">
         <v>11</v>
@@ -843,85 +849,85 @@
         <v>13</v>
       </c>
       <c r="X5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK5" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ5" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW5" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -929,37 +935,37 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>7</v>
@@ -977,13 +983,13 @@
         <v>9</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U6" s="0" t="s">
         <v>11</v>
@@ -995,85 +1001,85 @@
         <v>13</v>
       </c>
       <c r="X6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA6" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH6" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV6" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW6" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1081,37 +1087,37 @@
         <v>0</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>7</v>
@@ -1129,13 +1135,13 @@
         <v>9</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U7" s="0" t="s">
         <v>11</v>
@@ -1147,85 +1153,85 @@
         <v>13</v>
       </c>
       <c r="X7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK7" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL7" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU7" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV7" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW7" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1233,37 +1239,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>7</v>
@@ -1281,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U8" s="0" t="s">
         <v>11</v>
@@ -1299,85 +1305,85 @@
         <v>13</v>
       </c>
       <c r="X8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA8" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE8" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK8" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL8" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS8" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT8" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU8" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV8" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW8" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1385,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>7</v>
@@ -1433,13 +1439,13 @@
         <v>9</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U9" s="0" t="s">
         <v>11</v>
@@ -1451,85 +1457,85 @@
         <v>13</v>
       </c>
       <c r="X9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA9" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK9" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL9" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN9" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO9" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ9" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR9" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS9" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW9" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1537,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>7</v>
@@ -1585,13 +1591,13 @@
         <v>9</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U10" s="0" t="s">
         <v>11</v>
@@ -1603,85 +1609,85 @@
         <v>13</v>
       </c>
       <c r="X10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK10" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL10" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN10" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO10" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ10" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS10" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV10" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW10" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1689,37 +1695,37 @@
         <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>7</v>
@@ -1737,13 +1743,13 @@
         <v>9</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U11" s="0" t="s">
         <v>11</v>
@@ -1755,85 +1761,85 @@
         <v>13</v>
       </c>
       <c r="X11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA11" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH11" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK11" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL11" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ11" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR11" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS11" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT11" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV11" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW11" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1841,37 +1847,37 @@
         <v>0</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>7</v>
@@ -1889,13 +1895,13 @@
         <v>9</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" s="0" t="s">
         <v>11</v>
@@ -1907,85 +1913,85 @@
         <v>13</v>
       </c>
       <c r="X12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE12" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH12" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK12" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL12" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ12" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR12" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS12" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT12" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV12" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW12" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1993,37 +1999,37 @@
         <v>0</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G13" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>7</v>
@@ -2041,13 +2047,13 @@
         <v>9</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" s="0" t="s">
         <v>11</v>
@@ -2059,85 +2065,85 @@
         <v>13</v>
       </c>
       <c r="X13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA13" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK13" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO13" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ13" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS13" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT13" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV13" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW13" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX13" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2145,37 +2151,37 @@
         <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>7</v>
@@ -2193,13 +2199,13 @@
         <v>9</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U14" s="0" t="s">
         <v>11</v>
@@ -2211,85 +2217,85 @@
         <v>13</v>
       </c>
       <c r="X14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF14" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ14" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK14" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL14" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN14" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO14" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ14" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR14" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS14" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT14" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV14" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW14" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2297,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>7</v>
@@ -2345,13 +2351,13 @@
         <v>9</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" s="0" t="s">
         <v>11</v>
@@ -2363,85 +2369,85 @@
         <v>13</v>
       </c>
       <c r="X15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA15" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF15" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG15" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK15" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL15" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM15" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO15" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ15" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT15" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU15" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV15" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW15" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2449,37 +2455,37 @@
         <v>0</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M16" s="0" t="s">
         <v>7</v>
@@ -2497,13 +2503,13 @@
         <v>9</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>11</v>
@@ -2515,85 +2521,85 @@
         <v>13</v>
       </c>
       <c r="X16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA16" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF16" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ16" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM16" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN16" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO16" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS16" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT16" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU16" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV16" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW16" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2601,37 +2607,37 @@
         <v>0</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>7</v>
@@ -2649,13 +2655,13 @@
         <v>9</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U17" s="0" t="s">
         <v>11</v>
@@ -2667,85 +2673,85 @@
         <v>13</v>
       </c>
       <c r="X17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA17" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF17" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK17" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL17" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM17" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN17" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO17" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ17" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS17" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT17" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU17" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV17" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW17" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2753,37 +2759,37 @@
         <v>0</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>7</v>
@@ -2801,13 +2807,13 @@
         <v>9</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S18" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U18" s="0" t="s">
         <v>11</v>
@@ -2819,85 +2825,85 @@
         <v>13</v>
       </c>
       <c r="X18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA18" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF18" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG18" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH18" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK18" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL18" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM18" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN18" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP18" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ18" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR18" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS18" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT18" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU18" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV18" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW18" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2905,37 +2911,37 @@
         <v>0</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G19" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" s="0" t="s">
         <v>7</v>
@@ -2953,13 +2959,13 @@
         <v>9</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>11</v>
@@ -2971,85 +2977,85 @@
         <v>13</v>
       </c>
       <c r="X19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF19" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG19" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH19" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK19" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL19" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ19" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR19" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS19" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT19" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU19" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV19" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW19" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3057,37 +3063,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>7</v>
@@ -3105,13 +3111,13 @@
         <v>9</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>11</v>
@@ -3123,85 +3129,85 @@
         <v>13</v>
       </c>
       <c r="X20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z20" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF20" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH20" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK20" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL20" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN20" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO20" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP20" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ20" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR20" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS20" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT20" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU20" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV20" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW20" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3209,37 +3215,37 @@
         <v>0</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>7</v>
@@ -3257,13 +3263,13 @@
         <v>9</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" s="0" t="s">
         <v>11</v>
@@ -3275,85 +3281,85 @@
         <v>13</v>
       </c>
       <c r="X21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF21" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH21" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI21" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ21" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK21" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL21" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM21" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN21" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO21" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ21" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS21" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT21" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU21" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV21" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW21" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3361,37 +3367,37 @@
         <v>0</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>7</v>
@@ -3409,13 +3415,13 @@
         <v>9</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U22" s="0" t="s">
         <v>11</v>
@@ -3427,85 +3433,85 @@
         <v>13</v>
       </c>
       <c r="X22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z22" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF22" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI22" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ22" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL22" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN22" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO22" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP22" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ22" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR22" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS22" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT22" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU22" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV22" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW22" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX22" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3513,37 +3519,37 @@
         <v>0</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>7</v>
@@ -3561,13 +3567,13 @@
         <v>9</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U23" s="0" t="s">
         <v>11</v>
@@ -3579,85 +3585,85 @@
         <v>13</v>
       </c>
       <c r="X23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF23" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG23" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH23" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI23" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ23" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK23" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL23" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN23" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO23" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ23" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR23" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS23" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT23" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU23" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV23" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW23" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3665,37 +3671,37 @@
         <v>0</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>7</v>
@@ -3713,13 +3719,13 @@
         <v>9</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U24" s="0" t="s">
         <v>11</v>
@@ -3731,85 +3737,85 @@
         <v>13</v>
       </c>
       <c r="X24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA24" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF24" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG24" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI24" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ24" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK24" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL24" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM24" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN24" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO24" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ24" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR24" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS24" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT24" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU24" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV24" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW24" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3817,37 +3823,37 @@
         <v>0</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G25" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>7</v>
@@ -3865,13 +3871,13 @@
         <v>9</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U25" s="0" t="s">
         <v>11</v>
@@ -3883,85 +3889,85 @@
         <v>13</v>
       </c>
       <c r="X25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA25" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF25" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH25" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ25" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK25" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL25" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN25" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ25" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR25" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS25" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT25" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU25" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV25" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW25" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3969,37 +3975,37 @@
         <v>0</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>7</v>
@@ -4017,13 +4023,13 @@
         <v>9</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U26" s="0" t="s">
         <v>11</v>
@@ -4035,85 +4041,85 @@
         <v>13</v>
       </c>
       <c r="X26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA26" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF26" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH26" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI26" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ26" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK26" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL26" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM26" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN26" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO26" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ26" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR26" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS26" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT26" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU26" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV26" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW26" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4121,37 +4127,37 @@
         <v>0</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M27" s="0" t="s">
         <v>7</v>
@@ -4169,13 +4175,13 @@
         <v>9</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U27" s="0" t="s">
         <v>11</v>
@@ -4187,85 +4193,85 @@
         <v>13</v>
       </c>
       <c r="X27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA27" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF27" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG27" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH27" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI27" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ27" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK27" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL27" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM27" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN27" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO27" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ27" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS27" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT27" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU27" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV27" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW27" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4273,37 +4279,37 @@
         <v>0</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G28" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>7</v>
@@ -4321,13 +4327,13 @@
         <v>9</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U28" s="0" t="s">
         <v>11</v>
@@ -4339,85 +4345,85 @@
         <v>13</v>
       </c>
       <c r="X28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA28" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF28" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG28" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH28" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI28" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ28" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK28" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL28" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN28" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO28" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ28" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR28" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS28" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT28" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV28" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW28" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4425,37 +4431,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G29" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>7</v>
@@ -4473,13 +4479,13 @@
         <v>9</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>11</v>
@@ -4491,85 +4497,85 @@
         <v>13</v>
       </c>
       <c r="X29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z29" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA29" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF29" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH29" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI29" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK29" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL29" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM29" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN29" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP29" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ29" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR29" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS29" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT29" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU29" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV29" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW29" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4577,37 +4583,37 @@
         <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>7</v>
@@ -4625,13 +4631,13 @@
         <v>9</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U30" s="0" t="s">
         <v>11</v>
@@ -4643,85 +4649,85 @@
         <v>13</v>
       </c>
       <c r="X30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z30" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA30" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF30" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG30" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH30" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI30" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ30" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK30" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL30" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM30" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN30" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO30" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ30" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR30" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS30" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT30" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU30" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV30" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW30" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4729,37 +4735,37 @@
         <v>0</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G31" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>7</v>
@@ -4777,13 +4783,13 @@
         <v>9</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T31" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U31" s="0" t="s">
         <v>11</v>
@@ -4795,85 +4801,85 @@
         <v>13</v>
       </c>
       <c r="X31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF31" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG31" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH31" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI31" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ31" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK31" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL31" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM31" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN31" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO31" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP31" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ31" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR31" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS31" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT31" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU31" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV31" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW31" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4881,37 +4887,37 @@
         <v>0</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>7</v>
@@ -4929,13 +4935,13 @@
         <v>9</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U32" s="0" t="s">
         <v>11</v>
@@ -4947,85 +4953,85 @@
         <v>13</v>
       </c>
       <c r="X32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA32" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF32" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG32" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH32" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI32" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ32" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK32" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL32" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM32" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN32" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO32" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ32" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR32" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS32" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT32" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU32" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV32" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW32" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5033,37 +5039,37 @@
         <v>0</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33" s="0" t="s">
         <v>7</v>
@@ -5081,13 +5087,13 @@
         <v>9</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U33" s="0" t="s">
         <v>11</v>
@@ -5099,85 +5105,85 @@
         <v>13</v>
       </c>
       <c r="X33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA33" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE33" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF33" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI33" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ33" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK33" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL33" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM33" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN33" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO33" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ33" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR33" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS33" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT33" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU33" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV33" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW33" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5185,37 +5191,37 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M34" s="0" t="s">
         <v>7</v>
@@ -5233,13 +5239,13 @@
         <v>9</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U34" s="0" t="s">
         <v>11</v>
@@ -5251,85 +5257,85 @@
         <v>13</v>
       </c>
       <c r="X34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA34" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF34" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG34" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH34" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI34" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ34" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK34" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL34" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM34" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN34" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO34" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ34" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR34" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS34" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT34" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU34" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV34" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW34" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5337,37 +5343,37 @@
         <v>0</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M35" s="0" t="s">
         <v>7</v>
@@ -5385,13 +5391,13 @@
         <v>9</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U35" s="0" t="s">
         <v>11</v>
@@ -5403,85 +5409,85 @@
         <v>13</v>
       </c>
       <c r="X35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA35" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF35" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG35" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH35" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI35" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ35" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK35" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL35" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM35" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN35" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO35" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP35" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ35" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR35" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS35" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT35" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU35" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV35" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW35" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5489,37 +5495,37 @@
         <v>0</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>7</v>
@@ -5537,13 +5543,13 @@
         <v>9</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T36" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U36" s="0" t="s">
         <v>11</v>
@@ -5555,85 +5561,85 @@
         <v>13</v>
       </c>
       <c r="X36" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA36" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF36" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG36" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH36" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI36" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ36" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK36" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL36" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM36" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN36" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO36" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ36" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR36" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS36" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT36" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU36" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV36" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW36" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX36" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5641,37 +5647,37 @@
         <v>0</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="0" t="s">
         <v>7</v>
@@ -5689,13 +5695,13 @@
         <v>9</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U37" s="0" t="s">
         <v>11</v>
@@ -5707,85 +5713,85 @@
         <v>13</v>
       </c>
       <c r="X37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="Y37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA37" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="0" t="s">
-        <v>0</v>
       </c>
       <c r="AE37" s="0" t="s">
         <v>15</v>
       </c>
       <c r="AF37" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH37" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI37" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ37" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK37" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL37" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AM37" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN37" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO37" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ37" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AR37" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS37" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AT37" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU37" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AV37" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AW37" s="0" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX37" s="0" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
